--- a/Datos_tabulados/Survavi_WSSV_EOs.xlsx
+++ b/Datos_tabulados/Survavi_WSSV_EOs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\Tarea_DBT854\Datos_tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DFB1CC-1EC5-4618-ABFC-2CD6C930EF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A49DE29-BEEF-4BAD-8925-675AFBD82E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A3E8431F-F26D-485F-9201-47E63157ABE8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="10">
   <si>
     <t xml:space="preserve">Conc. </t>
   </si>
@@ -66,99 +66,18 @@
   <si>
     <t>Vehiculo</t>
   </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2.5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>µ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>g/mL</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.25 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>µ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>g/mL</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>µ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>g/mL</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -499,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B746F5-DF93-4938-81D9-7C4E242C6158}">
   <dimension ref="A1:E226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -526,8 +445,8 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
+      <c r="B2">
+        <v>2.5</v>
       </c>
       <c r="C2">
         <v>9</v>
@@ -543,8 +462,8 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
+      <c r="B3">
+        <v>2.5</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -560,8 +479,8 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
+      <c r="B4">
+        <v>2.5</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -577,8 +496,8 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
+      <c r="B5">
+        <v>2.5</v>
       </c>
       <c r="C5">
         <v>9</v>
@@ -594,8 +513,8 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
+      <c r="B6">
+        <v>2.5</v>
       </c>
       <c r="C6">
         <v>9</v>
@@ -611,8 +530,8 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
+      <c r="B7">
+        <v>2.5</v>
       </c>
       <c r="C7">
         <v>9</v>
@@ -628,8 +547,8 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
+      <c r="B8">
+        <v>2.5</v>
       </c>
       <c r="C8">
         <v>9</v>
@@ -645,8 +564,8 @@
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
+      <c r="B9">
+        <v>2.5</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -662,8 +581,8 @@
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
+      <c r="B10">
+        <v>2.5</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -679,8 +598,8 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
+      <c r="B11">
+        <v>2.5</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -696,8 +615,8 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" t="s">
-        <v>10</v>
+      <c r="B12">
+        <v>2.5</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -713,8 +632,8 @@
       <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B13" t="s">
-        <v>10</v>
+      <c r="B13">
+        <v>2.5</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -730,8 +649,8 @@
       <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B14" t="s">
-        <v>10</v>
+      <c r="B14">
+        <v>2.5</v>
       </c>
       <c r="C14">
         <v>9</v>
@@ -747,8 +666,8 @@
       <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B15" t="s">
-        <v>10</v>
+      <c r="B15">
+        <v>2.5</v>
       </c>
       <c r="C15">
         <v>9</v>
@@ -764,8 +683,8 @@
       <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="B16" t="s">
-        <v>10</v>
+      <c r="B16">
+        <v>2.5</v>
       </c>
       <c r="C16">
         <v>9</v>
@@ -781,8 +700,8 @@
       <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="B17" t="s">
-        <v>10</v>
+      <c r="B17">
+        <v>2.5</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -798,8 +717,8 @@
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="B18" t="s">
-        <v>10</v>
+      <c r="B18">
+        <v>2.5</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -815,8 +734,8 @@
       <c r="A19" t="s">
         <v>5</v>
       </c>
-      <c r="B19" t="s">
-        <v>10</v>
+      <c r="B19">
+        <v>2.5</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -832,8 +751,8 @@
       <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B20" t="s">
-        <v>10</v>
+      <c r="B20">
+        <v>2.5</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -849,8 +768,8 @@
       <c r="A21" t="s">
         <v>5</v>
       </c>
-      <c r="B21" t="s">
-        <v>10</v>
+      <c r="B21">
+        <v>2.5</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -866,8 +785,8 @@
       <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="B22" t="s">
-        <v>10</v>
+      <c r="B22">
+        <v>2.5</v>
       </c>
       <c r="C22">
         <v>10</v>
@@ -883,8 +802,8 @@
       <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="B23" t="s">
-        <v>10</v>
+      <c r="B23">
+        <v>2.5</v>
       </c>
       <c r="C23">
         <v>10</v>
@@ -900,8 +819,8 @@
       <c r="A24" t="s">
         <v>5</v>
       </c>
-      <c r="B24" t="s">
-        <v>10</v>
+      <c r="B24">
+        <v>2.5</v>
       </c>
       <c r="C24">
         <v>10</v>
@@ -917,8 +836,8 @@
       <c r="A25" t="s">
         <v>5</v>
       </c>
-      <c r="B25" t="s">
-        <v>10</v>
+      <c r="B25">
+        <v>2.5</v>
       </c>
       <c r="C25">
         <v>10</v>
@@ -934,8 +853,8 @@
       <c r="A26" t="s">
         <v>5</v>
       </c>
-      <c r="B26" t="s">
-        <v>10</v>
+      <c r="B26">
+        <v>2.5</v>
       </c>
       <c r="C26">
         <v>10</v>
@@ -951,8 +870,8 @@
       <c r="A27" t="s">
         <v>5</v>
       </c>
-      <c r="B27" t="s">
-        <v>10</v>
+      <c r="B27">
+        <v>2.5</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -968,8 +887,8 @@
       <c r="A28" t="s">
         <v>5</v>
       </c>
-      <c r="B28" t="s">
-        <v>10</v>
+      <c r="B28">
+        <v>2.5</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -985,8 +904,8 @@
       <c r="A29" t="s">
         <v>5</v>
       </c>
-      <c r="B29" t="s">
-        <v>10</v>
+      <c r="B29">
+        <v>2.5</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -1002,8 +921,8 @@
       <c r="A30" t="s">
         <v>5</v>
       </c>
-      <c r="B30" t="s">
-        <v>10</v>
+      <c r="B30">
+        <v>2.5</v>
       </c>
       <c r="C30">
         <v>10</v>
@@ -1019,8 +938,8 @@
       <c r="A31" t="s">
         <v>5</v>
       </c>
-      <c r="B31" t="s">
-        <v>10</v>
+      <c r="B31">
+        <v>2.5</v>
       </c>
       <c r="C31">
         <v>10</v>
@@ -1036,8 +955,8 @@
       <c r="A32" t="s">
         <v>5</v>
       </c>
-      <c r="B32" t="s">
-        <v>10</v>
+      <c r="B32">
+        <v>2.5</v>
       </c>
       <c r="C32">
         <v>11</v>
@@ -1053,8 +972,8 @@
       <c r="A33" t="s">
         <v>5</v>
       </c>
-      <c r="B33" t="s">
-        <v>10</v>
+      <c r="B33">
+        <v>2.5</v>
       </c>
       <c r="C33">
         <v>11</v>
@@ -1070,8 +989,8 @@
       <c r="A34" t="s">
         <v>5</v>
       </c>
-      <c r="B34" t="s">
-        <v>10</v>
+      <c r="B34">
+        <v>2.5</v>
       </c>
       <c r="C34">
         <v>11</v>
@@ -1087,8 +1006,8 @@
       <c r="A35" t="s">
         <v>5</v>
       </c>
-      <c r="B35" t="s">
-        <v>10</v>
+      <c r="B35">
+        <v>2.5</v>
       </c>
       <c r="C35">
         <v>11</v>
@@ -1104,8 +1023,8 @@
       <c r="A36" t="s">
         <v>5</v>
       </c>
-      <c r="B36" t="s">
-        <v>10</v>
+      <c r="B36">
+        <v>2.5</v>
       </c>
       <c r="C36">
         <v>11</v>
@@ -1121,8 +1040,8 @@
       <c r="A37" t="s">
         <v>5</v>
       </c>
-      <c r="B37" t="s">
-        <v>10</v>
+      <c r="B37">
+        <v>2.5</v>
       </c>
       <c r="C37">
         <v>11</v>
@@ -1138,8 +1057,8 @@
       <c r="A38" t="s">
         <v>5</v>
       </c>
-      <c r="B38" t="s">
-        <v>10</v>
+      <c r="B38">
+        <v>2.5</v>
       </c>
       <c r="C38">
         <v>11</v>
@@ -1155,8 +1074,8 @@
       <c r="A39" t="s">
         <v>5</v>
       </c>
-      <c r="B39" t="s">
-        <v>10</v>
+      <c r="B39">
+        <v>2.5</v>
       </c>
       <c r="C39">
         <v>11</v>
@@ -1172,8 +1091,8 @@
       <c r="A40" t="s">
         <v>5</v>
       </c>
-      <c r="B40" t="s">
-        <v>10</v>
+      <c r="B40">
+        <v>2.5</v>
       </c>
       <c r="C40">
         <v>11</v>
@@ -1189,8 +1108,8 @@
       <c r="A41" t="s">
         <v>5</v>
       </c>
-      <c r="B41" t="s">
-        <v>10</v>
+      <c r="B41">
+        <v>2.5</v>
       </c>
       <c r="C41">
         <v>11</v>
@@ -1206,8 +1125,8 @@
       <c r="A42" t="s">
         <v>5</v>
       </c>
-      <c r="B42" t="s">
-        <v>10</v>
+      <c r="B42">
+        <v>2.5</v>
       </c>
       <c r="C42">
         <v>11</v>
@@ -1223,8 +1142,8 @@
       <c r="A43" t="s">
         <v>5</v>
       </c>
-      <c r="B43" t="s">
-        <v>10</v>
+      <c r="B43">
+        <v>2.5</v>
       </c>
       <c r="C43">
         <v>11</v>
@@ -1240,8 +1159,8 @@
       <c r="A44" t="s">
         <v>5</v>
       </c>
-      <c r="B44" t="s">
-        <v>10</v>
+      <c r="B44">
+        <v>2.5</v>
       </c>
       <c r="C44">
         <v>11</v>
@@ -1257,8 +1176,8 @@
       <c r="A45" t="s">
         <v>5</v>
       </c>
-      <c r="B45" t="s">
-        <v>10</v>
+      <c r="B45">
+        <v>2.5</v>
       </c>
       <c r="C45">
         <v>11</v>
@@ -1274,8 +1193,8 @@
       <c r="A46" t="s">
         <v>5</v>
       </c>
-      <c r="B46" t="s">
-        <v>10</v>
+      <c r="B46">
+        <v>2.5</v>
       </c>
       <c r="C46">
         <v>11</v>
@@ -1291,8 +1210,8 @@
       <c r="A47" t="s">
         <v>6</v>
       </c>
-      <c r="B47" t="s">
-        <v>11</v>
+      <c r="B47">
+        <v>1.25</v>
       </c>
       <c r="C47">
         <v>15</v>
@@ -1308,8 +1227,8 @@
       <c r="A48" t="s">
         <v>6</v>
       </c>
-      <c r="B48" t="s">
-        <v>11</v>
+      <c r="B48">
+        <v>1.25</v>
       </c>
       <c r="C48">
         <v>15</v>
@@ -1325,8 +1244,8 @@
       <c r="A49" t="s">
         <v>6</v>
       </c>
-      <c r="B49" t="s">
-        <v>11</v>
+      <c r="B49">
+        <v>1.25</v>
       </c>
       <c r="C49">
         <v>15</v>
@@ -1342,8 +1261,8 @@
       <c r="A50" t="s">
         <v>6</v>
       </c>
-      <c r="B50" t="s">
-        <v>11</v>
+      <c r="B50">
+        <v>1.25</v>
       </c>
       <c r="C50">
         <v>15</v>
@@ -1359,8 +1278,8 @@
       <c r="A51" t="s">
         <v>6</v>
       </c>
-      <c r="B51" t="s">
-        <v>11</v>
+      <c r="B51">
+        <v>1.25</v>
       </c>
       <c r="C51">
         <v>15</v>
@@ -1376,8 +1295,8 @@
       <c r="A52" t="s">
         <v>6</v>
       </c>
-      <c r="B52" t="s">
-        <v>11</v>
+      <c r="B52">
+        <v>1.25</v>
       </c>
       <c r="C52">
         <v>15</v>
@@ -1393,8 +1312,8 @@
       <c r="A53" t="s">
         <v>6</v>
       </c>
-      <c r="B53" t="s">
-        <v>11</v>
+      <c r="B53">
+        <v>1.25</v>
       </c>
       <c r="C53">
         <v>15</v>
@@ -1410,8 +1329,8 @@
       <c r="A54" t="s">
         <v>6</v>
       </c>
-      <c r="B54" t="s">
-        <v>11</v>
+      <c r="B54">
+        <v>1.25</v>
       </c>
       <c r="C54">
         <v>15</v>
@@ -1427,8 +1346,8 @@
       <c r="A55" t="s">
         <v>6</v>
       </c>
-      <c r="B55" t="s">
-        <v>11</v>
+      <c r="B55">
+        <v>1.25</v>
       </c>
       <c r="C55">
         <v>15</v>
@@ -1444,8 +1363,8 @@
       <c r="A56" t="s">
         <v>6</v>
       </c>
-      <c r="B56" t="s">
-        <v>11</v>
+      <c r="B56">
+        <v>1.25</v>
       </c>
       <c r="C56">
         <v>15</v>
@@ -1461,8 +1380,8 @@
       <c r="A57" t="s">
         <v>6</v>
       </c>
-      <c r="B57" t="s">
-        <v>11</v>
+      <c r="B57">
+        <v>1.25</v>
       </c>
       <c r="C57">
         <v>15</v>
@@ -1478,8 +1397,8 @@
       <c r="A58" t="s">
         <v>6</v>
       </c>
-      <c r="B58" t="s">
-        <v>11</v>
+      <c r="B58">
+        <v>1.25</v>
       </c>
       <c r="C58">
         <v>15</v>
@@ -1495,8 +1414,8 @@
       <c r="A59" t="s">
         <v>6</v>
       </c>
-      <c r="B59" t="s">
-        <v>11</v>
+      <c r="B59">
+        <v>1.25</v>
       </c>
       <c r="C59">
         <v>15</v>
@@ -1512,8 +1431,8 @@
       <c r="A60" t="s">
         <v>6</v>
       </c>
-      <c r="B60" t="s">
-        <v>11</v>
+      <c r="B60">
+        <v>1.25</v>
       </c>
       <c r="C60">
         <v>15</v>
@@ -1529,8 +1448,8 @@
       <c r="A61" t="s">
         <v>6</v>
       </c>
-      <c r="B61" t="s">
-        <v>11</v>
+      <c r="B61">
+        <v>1.25</v>
       </c>
       <c r="C61">
         <v>15</v>
@@ -1546,8 +1465,8 @@
       <c r="A62" t="s">
         <v>6</v>
       </c>
-      <c r="B62" t="s">
-        <v>11</v>
+      <c r="B62">
+        <v>1.25</v>
       </c>
       <c r="C62">
         <v>16</v>
@@ -1563,8 +1482,8 @@
       <c r="A63" t="s">
         <v>6</v>
       </c>
-      <c r="B63" t="s">
-        <v>11</v>
+      <c r="B63">
+        <v>1.25</v>
       </c>
       <c r="C63">
         <v>16</v>
@@ -1580,8 +1499,8 @@
       <c r="A64" t="s">
         <v>6</v>
       </c>
-      <c r="B64" t="s">
-        <v>11</v>
+      <c r="B64">
+        <v>1.25</v>
       </c>
       <c r="C64">
         <v>16</v>
@@ -1597,8 +1516,8 @@
       <c r="A65" t="s">
         <v>6</v>
       </c>
-      <c r="B65" t="s">
-        <v>11</v>
+      <c r="B65">
+        <v>1.25</v>
       </c>
       <c r="C65">
         <v>16</v>
@@ -1614,8 +1533,8 @@
       <c r="A66" t="s">
         <v>6</v>
       </c>
-      <c r="B66" t="s">
-        <v>11</v>
+      <c r="B66">
+        <v>1.25</v>
       </c>
       <c r="C66">
         <v>16</v>
@@ -1631,8 +1550,8 @@
       <c r="A67" t="s">
         <v>6</v>
       </c>
-      <c r="B67" t="s">
-        <v>11</v>
+      <c r="B67">
+        <v>1.25</v>
       </c>
       <c r="C67">
         <v>16</v>
@@ -1648,8 +1567,8 @@
       <c r="A68" t="s">
         <v>6</v>
       </c>
-      <c r="B68" t="s">
-        <v>11</v>
+      <c r="B68">
+        <v>1.25</v>
       </c>
       <c r="C68">
         <v>16</v>
@@ -1665,8 +1584,8 @@
       <c r="A69" t="s">
         <v>6</v>
       </c>
-      <c r="B69" t="s">
-        <v>11</v>
+      <c r="B69">
+        <v>1.25</v>
       </c>
       <c r="C69">
         <v>16</v>
@@ -1682,8 +1601,8 @@
       <c r="A70" t="s">
         <v>6</v>
       </c>
-      <c r="B70" t="s">
-        <v>11</v>
+      <c r="B70">
+        <v>1.25</v>
       </c>
       <c r="C70">
         <v>16</v>
@@ -1699,8 +1618,8 @@
       <c r="A71" t="s">
         <v>6</v>
       </c>
-      <c r="B71" t="s">
-        <v>11</v>
+      <c r="B71">
+        <v>1.25</v>
       </c>
       <c r="C71">
         <v>16</v>
@@ -1716,8 +1635,8 @@
       <c r="A72" t="s">
         <v>6</v>
       </c>
-      <c r="B72" t="s">
-        <v>11</v>
+      <c r="B72">
+        <v>1.25</v>
       </c>
       <c r="C72">
         <v>16</v>
@@ -1733,8 +1652,8 @@
       <c r="A73" t="s">
         <v>6</v>
       </c>
-      <c r="B73" t="s">
-        <v>11</v>
+      <c r="B73">
+        <v>1.25</v>
       </c>
       <c r="C73">
         <v>16</v>
@@ -1750,8 +1669,8 @@
       <c r="A74" t="s">
         <v>6</v>
       </c>
-      <c r="B74" t="s">
-        <v>11</v>
+      <c r="B74">
+        <v>1.25</v>
       </c>
       <c r="C74">
         <v>16</v>
@@ -1767,8 +1686,8 @@
       <c r="A75" t="s">
         <v>6</v>
       </c>
-      <c r="B75" t="s">
-        <v>11</v>
+      <c r="B75">
+        <v>1.25</v>
       </c>
       <c r="C75">
         <v>16</v>
@@ -1784,8 +1703,8 @@
       <c r="A76" t="s">
         <v>6</v>
       </c>
-      <c r="B76" t="s">
-        <v>11</v>
+      <c r="B76">
+        <v>1.25</v>
       </c>
       <c r="C76">
         <v>16</v>
@@ -1801,8 +1720,8 @@
       <c r="A77" t="s">
         <v>6</v>
       </c>
-      <c r="B77" t="s">
-        <v>11</v>
+      <c r="B77">
+        <v>1.25</v>
       </c>
       <c r="C77">
         <v>17</v>
@@ -1818,8 +1737,8 @@
       <c r="A78" t="s">
         <v>6</v>
       </c>
-      <c r="B78" t="s">
-        <v>11</v>
+      <c r="B78">
+        <v>1.25</v>
       </c>
       <c r="C78">
         <v>17</v>
@@ -1835,8 +1754,8 @@
       <c r="A79" t="s">
         <v>6</v>
       </c>
-      <c r="B79" t="s">
-        <v>11</v>
+      <c r="B79">
+        <v>1.25</v>
       </c>
       <c r="C79">
         <v>17</v>
@@ -1852,8 +1771,8 @@
       <c r="A80" t="s">
         <v>6</v>
       </c>
-      <c r="B80" t="s">
-        <v>11</v>
+      <c r="B80">
+        <v>1.25</v>
       </c>
       <c r="C80">
         <v>17</v>
@@ -1869,8 +1788,8 @@
       <c r="A81" t="s">
         <v>6</v>
       </c>
-      <c r="B81" t="s">
-        <v>11</v>
+      <c r="B81">
+        <v>1.25</v>
       </c>
       <c r="C81">
         <v>17</v>
@@ -1886,8 +1805,8 @@
       <c r="A82" t="s">
         <v>6</v>
       </c>
-      <c r="B82" t="s">
-        <v>11</v>
+      <c r="B82">
+        <v>1.25</v>
       </c>
       <c r="C82">
         <v>17</v>
@@ -1903,8 +1822,8 @@
       <c r="A83" t="s">
         <v>6</v>
       </c>
-      <c r="B83" t="s">
-        <v>11</v>
+      <c r="B83">
+        <v>1.25</v>
       </c>
       <c r="C83">
         <v>17</v>
@@ -1920,8 +1839,8 @@
       <c r="A84" t="s">
         <v>6</v>
       </c>
-      <c r="B84" t="s">
-        <v>11</v>
+      <c r="B84">
+        <v>1.25</v>
       </c>
       <c r="C84">
         <v>17</v>
@@ -1937,8 +1856,8 @@
       <c r="A85" t="s">
         <v>6</v>
       </c>
-      <c r="B85" t="s">
-        <v>11</v>
+      <c r="B85">
+        <v>1.25</v>
       </c>
       <c r="C85">
         <v>17</v>
@@ -1954,8 +1873,8 @@
       <c r="A86" t="s">
         <v>6</v>
       </c>
-      <c r="B86" t="s">
-        <v>11</v>
+      <c r="B86">
+        <v>1.25</v>
       </c>
       <c r="C86">
         <v>17</v>
@@ -1971,8 +1890,8 @@
       <c r="A87" t="s">
         <v>6</v>
       </c>
-      <c r="B87" t="s">
-        <v>11</v>
+      <c r="B87">
+        <v>1.25</v>
       </c>
       <c r="C87">
         <v>17</v>
@@ -1988,8 +1907,8 @@
       <c r="A88" t="s">
         <v>6</v>
       </c>
-      <c r="B88" t="s">
-        <v>11</v>
+      <c r="B88">
+        <v>1.25</v>
       </c>
       <c r="C88">
         <v>17</v>
@@ -2005,8 +1924,8 @@
       <c r="A89" t="s">
         <v>6</v>
       </c>
-      <c r="B89" t="s">
-        <v>11</v>
+      <c r="B89">
+        <v>1.25</v>
       </c>
       <c r="C89">
         <v>17</v>
@@ -2022,8 +1941,8 @@
       <c r="A90" t="s">
         <v>6</v>
       </c>
-      <c r="B90" t="s">
-        <v>11</v>
+      <c r="B90">
+        <v>1.25</v>
       </c>
       <c r="C90">
         <v>17</v>
@@ -2039,8 +1958,8 @@
       <c r="A91" t="s">
         <v>6</v>
       </c>
-      <c r="B91" t="s">
-        <v>11</v>
+      <c r="B91">
+        <v>1.25</v>
       </c>
       <c r="C91">
         <v>17</v>
@@ -2056,8 +1975,8 @@
       <c r="A92" t="s">
         <v>7</v>
       </c>
-      <c r="B92" t="s">
-        <v>12</v>
+      <c r="B92">
+        <v>10</v>
       </c>
       <c r="C92">
         <v>18</v>
@@ -2073,8 +1992,8 @@
       <c r="A93" t="s">
         <v>7</v>
       </c>
-      <c r="B93" t="s">
-        <v>12</v>
+      <c r="B93">
+        <v>10</v>
       </c>
       <c r="C93">
         <v>18</v>
@@ -2090,8 +2009,8 @@
       <c r="A94" t="s">
         <v>7</v>
       </c>
-      <c r="B94" t="s">
-        <v>12</v>
+      <c r="B94">
+        <v>10</v>
       </c>
       <c r="C94">
         <v>18</v>
@@ -2107,8 +2026,8 @@
       <c r="A95" t="s">
         <v>7</v>
       </c>
-      <c r="B95" t="s">
-        <v>12</v>
+      <c r="B95">
+        <v>10</v>
       </c>
       <c r="C95">
         <v>18</v>
@@ -2124,8 +2043,8 @@
       <c r="A96" t="s">
         <v>7</v>
       </c>
-      <c r="B96" t="s">
-        <v>12</v>
+      <c r="B96">
+        <v>10</v>
       </c>
       <c r="C96">
         <v>18</v>
@@ -2141,8 +2060,8 @@
       <c r="A97" t="s">
         <v>7</v>
       </c>
-      <c r="B97" t="s">
-        <v>12</v>
+      <c r="B97">
+        <v>10</v>
       </c>
       <c r="C97">
         <v>18</v>
@@ -2158,8 +2077,8 @@
       <c r="A98" t="s">
         <v>7</v>
       </c>
-      <c r="B98" t="s">
-        <v>12</v>
+      <c r="B98">
+        <v>10</v>
       </c>
       <c r="C98">
         <v>18</v>
@@ -2175,8 +2094,8 @@
       <c r="A99" t="s">
         <v>7</v>
       </c>
-      <c r="B99" t="s">
-        <v>12</v>
+      <c r="B99">
+        <v>10</v>
       </c>
       <c r="C99">
         <v>18</v>
@@ -2192,8 +2111,8 @@
       <c r="A100" t="s">
         <v>7</v>
       </c>
-      <c r="B100" t="s">
-        <v>12</v>
+      <c r="B100">
+        <v>10</v>
       </c>
       <c r="C100">
         <v>18</v>
@@ -2209,8 +2128,8 @@
       <c r="A101" t="s">
         <v>7</v>
       </c>
-      <c r="B101" t="s">
-        <v>12</v>
+      <c r="B101">
+        <v>10</v>
       </c>
       <c r="C101">
         <v>18</v>
@@ -2226,8 +2145,8 @@
       <c r="A102" t="s">
         <v>7</v>
       </c>
-      <c r="B102" t="s">
-        <v>12</v>
+      <c r="B102">
+        <v>10</v>
       </c>
       <c r="C102">
         <v>18</v>
@@ -2243,8 +2162,8 @@
       <c r="A103" t="s">
         <v>7</v>
       </c>
-      <c r="B103" t="s">
-        <v>12</v>
+      <c r="B103">
+        <v>10</v>
       </c>
       <c r="C103">
         <v>18</v>
@@ -2260,8 +2179,8 @@
       <c r="A104" t="s">
         <v>7</v>
       </c>
-      <c r="B104" t="s">
-        <v>12</v>
+      <c r="B104">
+        <v>10</v>
       </c>
       <c r="C104">
         <v>18</v>
@@ -2277,8 +2196,8 @@
       <c r="A105" t="s">
         <v>7</v>
       </c>
-      <c r="B105" t="s">
-        <v>12</v>
+      <c r="B105">
+        <v>10</v>
       </c>
       <c r="C105">
         <v>18</v>
@@ -2294,8 +2213,8 @@
       <c r="A106" t="s">
         <v>7</v>
       </c>
-      <c r="B106" t="s">
-        <v>12</v>
+      <c r="B106">
+        <v>10</v>
       </c>
       <c r="C106">
         <v>18</v>
@@ -2311,8 +2230,8 @@
       <c r="A107" t="s">
         <v>7</v>
       </c>
-      <c r="B107" t="s">
-        <v>12</v>
+      <c r="B107">
+        <v>10</v>
       </c>
       <c r="C107">
         <v>19</v>
@@ -2328,8 +2247,8 @@
       <c r="A108" t="s">
         <v>7</v>
       </c>
-      <c r="B108" t="s">
-        <v>12</v>
+      <c r="B108">
+        <v>10</v>
       </c>
       <c r="C108">
         <v>19</v>
@@ -2345,8 +2264,8 @@
       <c r="A109" t="s">
         <v>7</v>
       </c>
-      <c r="B109" t="s">
-        <v>12</v>
+      <c r="B109">
+        <v>10</v>
       </c>
       <c r="C109">
         <v>19</v>
@@ -2362,8 +2281,8 @@
       <c r="A110" t="s">
         <v>7</v>
       </c>
-      <c r="B110" t="s">
-        <v>12</v>
+      <c r="B110">
+        <v>10</v>
       </c>
       <c r="C110">
         <v>19</v>
@@ -2379,8 +2298,8 @@
       <c r="A111" t="s">
         <v>7</v>
       </c>
-      <c r="B111" t="s">
-        <v>12</v>
+      <c r="B111">
+        <v>10</v>
       </c>
       <c r="C111">
         <v>19</v>
@@ -2396,8 +2315,8 @@
       <c r="A112" t="s">
         <v>7</v>
       </c>
-      <c r="B112" t="s">
-        <v>12</v>
+      <c r="B112">
+        <v>10</v>
       </c>
       <c r="C112">
         <v>19</v>
@@ -2413,8 +2332,8 @@
       <c r="A113" t="s">
         <v>7</v>
       </c>
-      <c r="B113" t="s">
-        <v>12</v>
+      <c r="B113">
+        <v>10</v>
       </c>
       <c r="C113">
         <v>19</v>
@@ -2430,8 +2349,8 @@
       <c r="A114" t="s">
         <v>7</v>
       </c>
-      <c r="B114" t="s">
-        <v>12</v>
+      <c r="B114">
+        <v>10</v>
       </c>
       <c r="C114">
         <v>19</v>
@@ -2447,8 +2366,8 @@
       <c r="A115" t="s">
         <v>7</v>
       </c>
-      <c r="B115" t="s">
-        <v>12</v>
+      <c r="B115">
+        <v>10</v>
       </c>
       <c r="C115">
         <v>19</v>
@@ -2464,8 +2383,8 @@
       <c r="A116" t="s">
         <v>7</v>
       </c>
-      <c r="B116" t="s">
-        <v>12</v>
+      <c r="B116">
+        <v>10</v>
       </c>
       <c r="C116">
         <v>19</v>
@@ -2481,8 +2400,8 @@
       <c r="A117" t="s">
         <v>7</v>
       </c>
-      <c r="B117" t="s">
-        <v>12</v>
+      <c r="B117">
+        <v>10</v>
       </c>
       <c r="C117">
         <v>19</v>
@@ -2498,8 +2417,8 @@
       <c r="A118" t="s">
         <v>7</v>
       </c>
-      <c r="B118" t="s">
-        <v>12</v>
+      <c r="B118">
+        <v>10</v>
       </c>
       <c r="C118">
         <v>19</v>
@@ -2515,8 +2434,8 @@
       <c r="A119" t="s">
         <v>7</v>
       </c>
-      <c r="B119" t="s">
-        <v>12</v>
+      <c r="B119">
+        <v>10</v>
       </c>
       <c r="C119">
         <v>19</v>
@@ -2532,8 +2451,8 @@
       <c r="A120" t="s">
         <v>7</v>
       </c>
-      <c r="B120" t="s">
-        <v>12</v>
+      <c r="B120">
+        <v>10</v>
       </c>
       <c r="C120">
         <v>19</v>
@@ -2549,8 +2468,8 @@
       <c r="A121" t="s">
         <v>7</v>
       </c>
-      <c r="B121" t="s">
-        <v>12</v>
+      <c r="B121">
+        <v>10</v>
       </c>
       <c r="C121">
         <v>19</v>
@@ -2566,14 +2485,14 @@
       <c r="A122" t="s">
         <v>7</v>
       </c>
-      <c r="B122" t="s">
-        <v>12</v>
+      <c r="B122">
+        <v>10</v>
       </c>
       <c r="C122">
         <v>20</v>
       </c>
       <c r="D122">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -2583,8 +2502,8 @@
       <c r="A123" t="s">
         <v>7</v>
       </c>
-      <c r="B123" t="s">
-        <v>12</v>
+      <c r="B123">
+        <v>10</v>
       </c>
       <c r="C123">
         <v>20</v>
@@ -2600,8 +2519,8 @@
       <c r="A124" t="s">
         <v>7</v>
       </c>
-      <c r="B124" t="s">
-        <v>12</v>
+      <c r="B124">
+        <v>10</v>
       </c>
       <c r="C124">
         <v>20</v>
@@ -2617,8 +2536,8 @@
       <c r="A125" t="s">
         <v>7</v>
       </c>
-      <c r="B125" t="s">
-        <v>12</v>
+      <c r="B125">
+        <v>10</v>
       </c>
       <c r="C125">
         <v>20</v>
@@ -2634,8 +2553,8 @@
       <c r="A126" t="s">
         <v>7</v>
       </c>
-      <c r="B126" t="s">
-        <v>12</v>
+      <c r="B126">
+        <v>10</v>
       </c>
       <c r="C126">
         <v>20</v>
@@ -2651,8 +2570,8 @@
       <c r="A127" t="s">
         <v>7</v>
       </c>
-      <c r="B127" t="s">
-        <v>12</v>
+      <c r="B127">
+        <v>10</v>
       </c>
       <c r="C127">
         <v>20</v>
@@ -2668,8 +2587,8 @@
       <c r="A128" t="s">
         <v>7</v>
       </c>
-      <c r="B128" t="s">
-        <v>12</v>
+      <c r="B128">
+        <v>10</v>
       </c>
       <c r="C128">
         <v>20</v>
@@ -2685,8 +2604,8 @@
       <c r="A129" t="s">
         <v>7</v>
       </c>
-      <c r="B129" t="s">
-        <v>12</v>
+      <c r="B129">
+        <v>10</v>
       </c>
       <c r="C129">
         <v>20</v>
@@ -2702,8 +2621,8 @@
       <c r="A130" t="s">
         <v>7</v>
       </c>
-      <c r="B130" t="s">
-        <v>12</v>
+      <c r="B130">
+        <v>10</v>
       </c>
       <c r="C130">
         <v>20</v>
@@ -2719,8 +2638,8 @@
       <c r="A131" t="s">
         <v>7</v>
       </c>
-      <c r="B131" t="s">
-        <v>12</v>
+      <c r="B131">
+        <v>10</v>
       </c>
       <c r="C131">
         <v>20</v>
@@ -2736,8 +2655,8 @@
       <c r="A132" t="s">
         <v>7</v>
       </c>
-      <c r="B132" t="s">
-        <v>12</v>
+      <c r="B132">
+        <v>10</v>
       </c>
       <c r="C132">
         <v>20</v>
@@ -2753,8 +2672,8 @@
       <c r="A133" t="s">
         <v>7</v>
       </c>
-      <c r="B133" t="s">
-        <v>12</v>
+      <c r="B133">
+        <v>10</v>
       </c>
       <c r="C133">
         <v>20</v>
@@ -2770,8 +2689,8 @@
       <c r="A134" t="s">
         <v>7</v>
       </c>
-      <c r="B134" t="s">
-        <v>12</v>
+      <c r="B134">
+        <v>10</v>
       </c>
       <c r="C134">
         <v>20</v>
@@ -2787,8 +2706,8 @@
       <c r="A135" t="s">
         <v>7</v>
       </c>
-      <c r="B135" t="s">
-        <v>12</v>
+      <c r="B135">
+        <v>10</v>
       </c>
       <c r="C135">
         <v>20</v>
@@ -2804,8 +2723,8 @@
       <c r="A136" t="s">
         <v>7</v>
       </c>
-      <c r="B136" t="s">
-        <v>12</v>
+      <c r="B136">
+        <v>10</v>
       </c>
       <c r="C136">
         <v>20</v>
